--- a/bioSample/bioSample_2651.xlsx
+++ b/bioSample/bioSample_2651.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_2651.xlsx
+++ b/bioSample/bioSample_2651.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="59">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -118,82 +118,85 @@
     <t xml:space="preserve">CNAG_05861</t>
   </si>
   <si>
+    <t xml:space="preserve">TDY2193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_03346</t>
+  </si>
+  <si>
     <t xml:space="preserve">TDY2194</t>
   </si>
   <si>
-    <t xml:space="preserve">CNAG_03346</t>
+    <t xml:space="preserve">CNAG_02476</t>
   </si>
   <si>
     <t xml:space="preserve">TDY2195</t>
   </si>
   <si>
-    <t xml:space="preserve">CNAG_02476</t>
+    <t xml:space="preserve">CNAG_02435</t>
   </si>
   <si>
     <t xml:space="preserve">TDY2196</t>
   </si>
   <si>
-    <t xml:space="preserve">CNAG_02435</t>
+    <t xml:space="preserve">CNAG_01883</t>
   </si>
   <si>
     <t xml:space="preserve">TDY2197</t>
   </si>
   <si>
-    <t xml:space="preserve">CNAG_01883</t>
+    <t xml:space="preserve">CNAG_00039</t>
   </si>
   <si>
     <t xml:space="preserve">TDY2198</t>
   </si>
   <si>
-    <t xml:space="preserve">CNAG_00039</t>
+    <t xml:space="preserve">CNAG_01977</t>
   </si>
   <si>
     <t xml:space="preserve">TDY2199</t>
   </si>
   <si>
-    <t xml:space="preserve">CNAG_01977</t>
+    <t xml:space="preserve">CNAG_02700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY22010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_04637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_07443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_07901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_07922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_07940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_06871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.09.17</t>
   </si>
   <si>
     <t xml:space="preserve">TDY2200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_02700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_04637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_07443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_07901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_07922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_07940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_06871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.09.17</t>
   </si>
 </sst>
 </file>
@@ -208,6 +211,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -292,7 +296,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -300,9 +304,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.07"/>
@@ -630,6 +634,9 @@
       <c r="I11" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J11" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -659,6 +666,9 @@
       <c r="I12" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J12" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -688,6 +698,9 @@
       <c r="I13" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J13" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -717,6 +730,9 @@
       <c r="I14" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J14" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -746,6 +762,9 @@
       <c r="I15" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J15" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -775,6 +794,9 @@
       <c r="I16" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J16" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -804,6 +826,9 @@
       <c r="I17" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J17" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -833,6 +858,9 @@
       <c r="I18" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J18" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -862,6 +890,9 @@
       <c r="I19" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J19" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -891,6 +922,9 @@
       <c r="I20" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J20" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -920,6 +954,9 @@
       <c r="I21" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J21" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -1265,6 +1302,9 @@
       <c r="I33" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="J33" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -1294,6 +1334,9 @@
       <c r="I34" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="J34" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -1323,6 +1366,9 @@
       <c r="I35" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="J35" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -1352,6 +1398,9 @@
       <c r="I36" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="J36" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -1381,6 +1430,9 @@
       <c r="I37" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="J37" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -1410,6 +1462,9 @@
       <c r="I38" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="J38" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -1439,6 +1494,9 @@
       <c r="I39" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="J39" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -1454,7 +1512,7 @@
         <v>12</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>47</v>
@@ -1468,6 +1526,9 @@
       <c r="I40" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="J40" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -1497,6 +1558,9 @@
       <c r="I41" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="J41" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -1526,6 +1590,9 @@
       <c r="I42" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="J42" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -1554,6 +1621,9 @@
       </c>
       <c r="I43" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/bioSample/bioSample_2651.xlsx
+++ b/bioSample/bioSample_2651.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="59">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -296,7 +296,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="Q20" activeCellId="0" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -434,6 +434,9 @@
       <c r="I4" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J4" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -463,6 +466,9 @@
       <c r="I5" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J5" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -492,6 +498,9 @@
       <c r="I6" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J6" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -521,6 +530,9 @@
       <c r="I7" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J7" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -547,6 +559,9 @@
       <c r="I8" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J8" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -576,6 +591,9 @@
       <c r="I9" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J9" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -605,6 +623,9 @@
       <c r="I10" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J10" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -983,6 +1004,9 @@
       <c r="I22" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J22" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -1012,6 +1036,9 @@
       <c r="I23" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J23" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -1102,6 +1129,9 @@
       <c r="I26" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="J26" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -1131,6 +1161,9 @@
       <c r="I27" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="J27" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -1160,6 +1193,9 @@
       <c r="I28" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="J28" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -1189,6 +1225,9 @@
       <c r="I29" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="J29" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -1215,6 +1254,9 @@
       <c r="I30" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="J30" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -1244,6 +1286,9 @@
       <c r="I31" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="J31" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -1273,6 +1318,9 @@
       <c r="I32" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="J32" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -1651,6 +1699,9 @@
       <c r="I44" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="J44" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -1679,6 +1730,9 @@
       </c>
       <c r="I45" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/bioSample/bioSample_2651.xlsx
+++ b/bioSample/bioSample_2651.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E278CBF-D06A-5D48-BA21-6E73E70D09A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78293F25-9C89-0D42-BD57-E385D72B1955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14580" yWindow="460" windowWidth="19020" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="66">
   <si>
     <t>harvestDate</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>01.09.18</t>
+  </si>
+  <si>
+    <t>TDY2356</t>
   </si>
 </sst>
 </file>
@@ -580,7 +583,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A45"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -883,6 +886,9 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
       <c r="F8" t="s">
         <v>31</v>
       </c>
@@ -1775,6 +1781,9 @@
       </c>
       <c r="D30" t="s">
         <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>65</v>
       </c>
       <c r="F30" t="s">
         <v>31</v>
